--- a/result/1224 hashtag&word.xlsx
+++ b/result/1224 hashtag&word.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minzhu/Desktop/Brexit/第一集/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minzhu/Downloads/TweetsMining/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D3DF6C-9FA2-7742-8E10-74A6D044F1E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E6A56-0CCB-5F4F-B4B7-0BDA3D346D0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="18820" windowHeight="17480" activeTab="3" xr2:uid="{2CBCEBB4-A5D1-014C-B65A-BC0EF44A1E4F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>#waton</t>
   </si>
@@ -375,26 +375,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> tories</t>
-  </si>
-  <si>
     <t xml:space="preserve"> cameron</t>
   </si>
   <si>
     <t xml:space="preserve"> boris</t>
   </si>
   <si>
-    <t xml:space="preserve"> corbyn</t>
-  </si>
-  <si>
     <t xml:space="preserve"> labour</t>
   </si>
   <si>
     <t xml:space="preserve"> tory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> conservative(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11747,7 +11737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BAF60F-CCF1-DE4A-8F35-5690A5BDD905}">
   <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="164" workbookViewId="0">
       <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -13302,18 +13292,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6BDA50-7A06-C24C-A57F-FDB8DD7E68C2}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>201601</v>
       </c>
@@ -13332,10 +13323,13 @@
       <c r="G1" s="1">
         <v>20160601</v>
       </c>
+      <c r="H1" s="1">
+        <v>20160623</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="19">
+    <row r="2" spans="1:8" ht="19">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5">
         <v>7</v>
@@ -13355,153 +13349,96 @@
       <c r="G2" s="5">
         <v>49</v>
       </c>
+      <c r="H2" s="5">
+        <v>56</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="19">
+    <row r="3" spans="1:8" ht="19">
       <c r="A3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>78</v>
+      </c>
+      <c r="D3" s="5">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5">
+        <v>65</v>
+      </c>
+      <c r="G3" s="5">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="A4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="5">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B4" s="5">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5">
+        <v>173</v>
+      </c>
+      <c r="D4" s="5">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5">
+        <v>68</v>
+      </c>
+      <c r="F4" s="5">
+        <v>159</v>
+      </c>
+      <c r="G4" s="5">
+        <v>208</v>
+      </c>
+      <c r="H4" s="5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19">
+      <c r="A5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
         <v>17</v>
       </c>
-      <c r="D3" s="5">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5">
-        <v>38</v>
+      <c r="D5" s="5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5">
+        <v>91</v>
+      </c>
+      <c r="H5" s="5">
+        <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5">
-        <v>11</v>
-      </c>
+    <row r="6" spans="1:8" ht="19">
+      <c r="A6" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="19">
-      <c r="A5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="5">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5">
-        <v>170</v>
-      </c>
-      <c r="D5" s="5">
-        <v>75</v>
-      </c>
-      <c r="E5" s="5">
-        <v>68</v>
-      </c>
-      <c r="F5" s="5">
-        <v>159</v>
-      </c>
-      <c r="G5" s="5">
-        <v>206</v>
-      </c>
+    <row r="7" spans="1:8" ht="19">
+      <c r="A7" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="19">
-      <c r="A6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>77</v>
-      </c>
-      <c r="D6" s="5">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5">
-        <v>65</v>
-      </c>
-      <c r="G6" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19">
-      <c r="A8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="19">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="19">
-      <c r="A11" s="3"/>
+    <row r="8" spans="1:8" ht="19">
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
